--- a/data/default_scor_model.xlsx
+++ b/data/default_scor_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\oleg\projects\urfu_sber\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42F9CF3-80CD-426A-BEC8-69621B16206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310210F-7976-40EA-B949-9264EC2671A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7CDF606-5D74-4DE8-82F1-C676F93DD8C5}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/default_scor_model.xlsx
+++ b/data/default_scor_model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\oleg\projects\urfu_sber\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\oleg\urfu_sber\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8310210F-7976-40EA-B949-9264EC2671A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF0BC6C-CA7B-42AC-BE00-990E9CEA3923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7CDF606-5D74-4DE8-82F1-C676F93DD8C5}"/>
   </bookViews>
@@ -25,37 +25,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Важность бизнес-процессов</t>
   </si>
   <si>
-    <t>Поскольку нам важно оценить не просто риск релиза, но и в некоторым смысле критичность этих последствий (или потерь), мы должны отдать этому критерию наивысший вес, несмотря на то, что он сам по себе прямо не влияет на оценку риска</t>
-  </si>
-  <si>
     <t>Оцените, насколько критичны для бизнеса процессы, связанные с данными витринами. Если внедрение нового релиза может повлиять на важные бизнес-процессы, риск будет выше</t>
   </si>
   <si>
     <t>Качество существующих данных</t>
   </si>
   <si>
-    <t>0 - низкое качество
-5 - высокое качество</t>
-  </si>
-  <si>
-    <t>Качество данных является основой всего процесса ETL. Низкое качество данных может привести к неверным выводам, сбоям трансформаций и повреждению хранилищ данных. Оценка и смягчение рисков, связанных с качеством данных, должно быть приоритетным направлением.</t>
-  </si>
-  <si>
     <t>Проверьте качество данных на текущих витринах данных. Если данные имеют высокий уровень ошибок или неправильно интерпретируются, риск внедрения нового релиза увеличивается</t>
   </si>
   <si>
     <t>Техническая сложность релиза</t>
   </si>
   <si>
-    <t>0 - низкая сложность
-5 - высокая сложность</t>
-  </si>
-  <si>
     <t>По мере увеличения сложности возрастает вероятность ошибок, проблем с производительностью и интеграционных проблем.</t>
   </si>
   <si>
@@ -65,83 +51,48 @@
     <t>Срочность релиза</t>
   </si>
   <si>
-    <t>0 - низкая срочность
-5 - высокая срочность</t>
-  </si>
-  <si>
-    <t>Короткие сроки релиза вводят дополнительное давление, которое может привести к спешке реализации, пропуску важных шагов (например, проведение минимального уровня тестирования) и повышению вероятности ошибок</t>
-  </si>
-  <si>
     <t>Рассмотрите сроки, в которые необходимо внедрить новый релиз. Если требуется срочное внедрение, риск возрастает</t>
   </si>
   <si>
     <t>Опыт и квалификация команды</t>
   </si>
   <si>
-    <t>0 - низкая квалификация
-5 - высокая квалификация</t>
-  </si>
-  <si>
     <t>Учтите опыт и квалификацию команды разработчиков и аналитиков данных. Если команда имеет достаточный опыт работы с подобными проектами, риски могут быть ниже</t>
   </si>
   <si>
     <t>Наличие инструментов и методов тестирования</t>
   </si>
   <si>
-    <t>0 - инструменты тестирования отсутствуют или не эффективны
-5 - есть инструкции для проведения тестирования, планы тестирования, тестирование проводится эффективно по истории</t>
-  </si>
-  <si>
     <t>Оцените наличие и эффективность инструментов и методов тестирования. Надежные инструменты и методики снижают риски</t>
   </si>
   <si>
     <t>Степень прогнозируемости изменнеий после релиза</t>
   </si>
   <si>
-    <t>0 - низкая прогнозируемость
-5 - высокая прогнозируемость</t>
-  </si>
-  <si>
     <t>Оцените степень прогнозируемости изменений в системе после внедрения нового релиза</t>
   </si>
   <si>
     <t>Качество и полнота плана на случай возникнования проблем с внедрением</t>
   </si>
   <si>
-    <t>0 - план отсутствует
-5 - имеется детализированный план</t>
-  </si>
-  <si>
     <t>Разработайте резервные планы на случай возникновения проблем при внедрении</t>
   </si>
   <si>
     <t>Готовность команды к реагированию на ошибки</t>
   </si>
   <si>
-    <t>0 - низкая готовность команды (долбоебы) 
-5 - высокая готовность команды</t>
-  </si>
-  <si>
     <t>Оцените готовность вашей команды быстро реагировать на возможные ошибки и сбои</t>
   </si>
   <si>
     <t>Наличие систем мониторинга изменеяемых бизнес-процессов</t>
   </si>
   <si>
-    <t>0 - отсутствие мониторинга
-5 - сплошной мониторинг</t>
-  </si>
-  <si>
     <t>Наличие систем мониторинга бизнес-процессов по которым производятся изменения</t>
   </si>
   <si>
     <t>Зрелость процессов разработки</t>
   </si>
   <si>
-    <t>0 - не зрелые процессы
-5 - высокая зрелость процессов</t>
-  </si>
-  <si>
     <t>Если процессы разработки хорошо налажены и стандартизированы, риски будут ниже.</t>
   </si>
   <si>
@@ -157,10 +108,6 @@
     <t>values_description</t>
   </si>
   <si>
-    <t>0 - низкая важность процессов
-5 - высокая важность процессов</t>
-  </si>
-  <si>
     <t>direct_dependence</t>
   </si>
   <si>
@@ -177,6 +124,72 @@
   </si>
   <si>
     <t>max_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поскольку важно оценить не просто риск релиза, но и в некоторым смысле критичность последствий (или потерь), следует данный критерий рассматривать в качестве одной из существенно значимых метрик оценки с высоким весовым коэффициентом </t>
+  </si>
+  <si>
+    <t>Опытная команда способна справится с самыми сложными задачами, снизить вероятность появления багов даже без глубокого всестороннего тестирования, поэтому это один из самых важных факторов</t>
+  </si>
+  <si>
+    <t>Качество данных является основой в ETL процессах. Низкое качество данных может привести к неверным выводам, сбоям трансформаций и повреждению хранилищ данных. Оценка и смягчение рисков, связанных с качеством данных, должно быть приоритетным направлением.</t>
+  </si>
+  <si>
+    <t>Системы мониторинга позволяют оперативно выявить проблемы в ETL процессах, поэтому наличие таких систем имеет существенное значение</t>
+  </si>
+  <si>
+    <t>Тестирование является неотъемлемой частью процесса разработки. От качества тестов зависит объем потенциальных багов, которые попадают в продуктивную среду</t>
+  </si>
+  <si>
+    <t>Короткие сроки релиза вводят дополнительное давление, которое может привести к спешке реализации, пропуску важных шагов и повышению вероятности ошибок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Понимание изменений, которые могут быть затроны релизом (связанные процессы, зависимые хранилища и тп) позволяет снизить вероятность ошибок в процессе релиза. </t>
+  </si>
+  <si>
+    <t>Наличие подробного плана позволяет при возникновении проблем с релизом, например, быстро откатить изменения, действовать по инструкции, а не "на эмоциях" и не упустить важные шаги в процессе решения проблемы</t>
+  </si>
+  <si>
+    <t>Команда, мотивированная на решение проблем, если они все же возникают в процессе релиза, позволяет в кратчайшие сроки решить проблему в моменты, когда они возникают</t>
+  </si>
+  <si>
+    <t>Системы мониторинга изменяемых бизнес-процессов позволяют в автоматическом режиме оценивать процессы, которые подтвергаются изменениям и оперативно принимать меры по устранению проблем</t>
+  </si>
+  <si>
+    <t>Зрелые процессы, позволяют на уровне инструментария решать часть "проблем" команд разработки, контролировать и улучшать архитекутуру решения, проводить codereview, не утерять / затереть код, в разных его итерациях</t>
+  </si>
+  <si>
+    <t>0 - низкая важность процессов, 5 - высокая важность процессов</t>
+  </si>
+  <si>
+    <t>0 - низкая квалификация, 5 - высокая квалификация</t>
+  </si>
+  <si>
+    <t>0 - низкое качество, 5 - высокое качество</t>
+  </si>
+  <si>
+    <t>0 - низкая сложность, 5 - высокая сложность</t>
+  </si>
+  <si>
+    <t>0 - отсутствие мониторинга, 5 - сплошной мониторинг</t>
+  </si>
+  <si>
+    <t>0 - низкая срочность, 5 - высокая срочность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - инструменты тестирования отсутствуют или не эффективны, 5 - есть инструкции для проведения тестирования, планы тестирования, тестирование проводится эффективно </t>
+  </si>
+  <si>
+    <t>0 - низкая прогнозируемость, 5 - высокая прогнозируемость</t>
+  </si>
+  <si>
+    <t>0 - план отсутствует, 5 - имеется детализированный план</t>
+  </si>
+  <si>
+    <t>0 - незрелые процессы, 5 - высокая зрелость процессов</t>
+  </si>
+  <si>
+    <t>0 - низкая готовность команды, 5 - высокая готовность команды</t>
   </si>
 </sst>
 </file>
@@ -225,7 +238,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,19 +247,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
+        <fgColor rgb="FF356854"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF356854"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,14 +317,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -325,14 +338,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,7 +658,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,347 +666,363 @@
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="63" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="86.42578125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="9"/>
       <c r="I13" s="2"/>
     </row>
   </sheetData>
